--- a/src/main/resources/universityInfo.xlsx
+++ b/src/main/resources/universityInfo.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Студенты" sheetId="1" r:id="rId1"/>
     <sheet name="Университеты" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Статистика" r:id="rId7" sheetId="4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>id университета</t>
   </si>
@@ -148,13 +149,50 @@
   </si>
   <si>
     <t>Васильев В. П.</t>
+  </si>
+  <si>
+    <t>Средний балл за экзамен</t>
+  </si>
+  <si>
+    <t>Количество студентов по профилю</t>
+  </si>
+  <si>
+    <t>Количество университетов по профилю</t>
+  </si>
+  <si>
+    <t>Университет</t>
+  </si>
+  <si>
+    <t>Медицина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МГМУ - Московский Государственный Медицинский Университет; ТУМ - Тамбовский Университет Медицины; СМИ - Самарский Медицинский Институт; </t>
+  </si>
+  <si>
+    <t>Лингвистика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВЛПУ - Воронежский Литературно-Переводческий Университет; </t>
+  </si>
+  <si>
+    <t>Математика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КУВ - Казанский Университет Вычислений; </t>
+  </si>
+  <si>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МВУ - Московский Выдуманный Университет; МПИ - Московский Придуманный Институт; </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +209,18 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <u val="none"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,11 +243,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -515,10 +567,10 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>33</v>
       </c>
       <c r="C2" s="3">
@@ -529,10 +581,10 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>34</v>
       </c>
       <c r="C3" s="3">
@@ -543,10 +595,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>35</v>
       </c>
       <c r="C4" s="3">
@@ -557,10 +609,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>36</v>
       </c>
       <c r="C5" s="3">
@@ -571,10 +623,10 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>37</v>
       </c>
       <c r="C6" s="3">
@@ -585,10 +637,10 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>38</v>
       </c>
       <c r="C7" s="3">
@@ -599,10 +651,10 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C8" s="3">
@@ -613,10 +665,10 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>40</v>
       </c>
       <c r="C9" s="3">
@@ -627,10 +679,10 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>41</v>
       </c>
       <c r="C10" s="3">
@@ -641,10 +693,10 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>42</v>
       </c>
       <c r="C11" s="3">
@@ -655,10 +707,10 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>43</v>
       </c>
       <c r="C12" s="3">
@@ -684,11 +736,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.42578125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -710,121 +762,121 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>1990</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>1987</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>1960</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>1995</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>1936</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>2003</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>1989</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -844,4 +896,102 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="5">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="5">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s" s="5">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>4.25</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>3.6700000762939453</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/src/main/resources/universityInfo.xlsx
+++ b/src/main/resources/universityInfo.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\black\IdeaProjects\University\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB767DF-3C6A-407A-AED7-142519B48185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Студенты" sheetId="1" r:id="rId1"/>
     <sheet name="Университеты" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
-    <sheet name="Статистика" r:id="rId7" sheetId="4"/>
+    <sheet name="Статистика" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -169,30 +174,30 @@
     <t xml:space="preserve">МГМУ - Московский Государственный Медицинский Университет; ТУМ - Тамбовский Университет Медицины; СМИ - Самарский Медицинский Институт; </t>
   </si>
   <si>
+    <t>Математика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КУВ - Казанский Университет Вычислений; </t>
+  </si>
+  <si>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МВУ - Московский Выдуманный Университет; МПИ - Московский Придуманный Институт; </t>
+  </si>
+  <si>
     <t>Лингвистика</t>
   </si>
   <si>
     <t xml:space="preserve">ВЛПУ - Воронежский Литературно-Переводческий Университет; </t>
-  </si>
-  <si>
-    <t>Математика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КУВ - Казанский Университет Вычислений; </t>
-  </si>
-  <si>
-    <t>Физика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МВУ - Московский Выдуманный Университет; МПИ - Московский Придуманный Институт; </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,7 +217,7 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="16.0"/>
+      <sz val="12.0"/>
       <b val="true"/>
       <u val="none"/>
     </font>
@@ -256,6 +261,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -302,7 +315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,9 +347,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -368,6 +399,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -543,16 +592,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C2:D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +615,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
@@ -580,7 +629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
@@ -594,7 +643,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
         <v>6</v>
       </c>
@@ -608,7 +657,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
         <v>7</v>
       </c>
@@ -622,7 +671,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s" s="0">
         <v>8</v>
       </c>
@@ -636,7 +685,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s" s="0">
         <v>8</v>
       </c>
@@ -650,7 +699,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s" s="0">
         <v>5</v>
       </c>
@@ -664,7 +713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s" s="0">
         <v>5</v>
       </c>
@@ -678,7 +727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s" s="0">
         <v>5</v>
       </c>
@@ -692,7 +741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s" s="0">
         <v>5</v>
       </c>
@@ -706,7 +755,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s" s="0">
         <v>5</v>
       </c>
@@ -727,14 +776,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="15.7109375"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="55.0"/>
@@ -743,7 +792,7 @@
     <col min="5" max="5" bestFit="true" customWidth="true" width="18.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,7 +810,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
@@ -778,7 +827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
         <v>6</v>
       </c>
@@ -795,7 +844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
@@ -812,7 +861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
         <v>8</v>
       </c>
@@ -829,7 +878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s" s="0">
         <v>9</v>
       </c>
@@ -846,7 +895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s" s="0">
         <v>10</v>
       </c>
@@ -863,7 +912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s" s="0">
         <v>11</v>
       </c>
@@ -887,18 +936,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -942,36 +979,36 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>4.25</v>
+        <v>3.6700000762939453</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>3.6700000762939453</v>
+        <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -979,13 +1016,13 @@
         <v>52</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>0.0</v>
+        <v>4.25</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>53</v>

--- a/src/main/resources/universityInfo.xlsx
+++ b/src/main/resources/universityInfo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
   <si>
     <t>id университета</t>
   </si>
@@ -197,7 +197,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +214,24 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <u val="none"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -248,13 +266,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -944,42 +965,42 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="5">
+      <c r="A1" t="s" s="8">
         <v>4</v>
       </c>
-      <c r="B1" t="s" s="5">
+      <c r="B1" t="s" s="8">
         <v>44</v>
       </c>
-      <c r="C1" t="s" s="5">
+      <c r="C1" t="s" s="8">
         <v>45</v>
       </c>
-      <c r="D1" t="s" s="5">
+      <c r="D1" t="s" s="8">
         <v>46</v>
       </c>
-      <c r="E1" t="s" s="5">
+      <c r="E1" t="s" s="8">
         <v>47</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>50</v>
+      <c r="A2" t="b" s="0">
+        <v>1</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>0.0</v>
+        <v>4.25</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>48</v>
+      <c r="A3" t="b" s="0">
+        <v>1</v>
       </c>
       <c r="B3" t="n" s="0">
         <v>3.6700000762939453</v>
@@ -995,8 +1016,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>54</v>
+      <c r="A4" t="b" s="0">
+        <v>1</v>
       </c>
       <c r="B4" t="n" s="0">
         <v>0.0</v>
@@ -1008,24 +1029,24 @@
         <v>1.0</v>
       </c>
       <c r="E4" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="b" s="0">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E5" t="s" s="0">
         <v>55</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="B5" t="n" s="0">
-        <v>4.25</v>
-      </c>
-      <c r="C5" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="D5" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
